--- a/ETRM.xlsx
+++ b/ETRM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Paid</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Remaining EV Paid for</t>
+  </si>
+  <si>
+    <t>to be sold at</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,16 +538,16 @@
         <v>10295</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <f>C16+C18</f>
         <v>10295</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7.4</v>
       </c>
@@ -556,51 +559,68 @@
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f>C20+C22</f>
         <v>6595</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>3629.95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7.26</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
       <c r="C26" s="1">
-        <f>SUM(C24:C25)</f>
-        <v>10224.950000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <f>C26/1000</f>
-        <v>10.224950000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7.35</v>
-      </c>
-      <c r="B29">
+        <f>B26*A26</f>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f>C24+C26</f>
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
         <v>500</v>
       </c>
-      <c r="C29">
-        <f>B29*A29</f>
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <f>C26-C29</f>
-        <v>6549.9500000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>C31/500</f>
-        <v>13.099900000000002</v>
+        <f>B31*A31</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f>C28-C31</f>
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <f>C33/500</f>
+        <v>10.45</v>
       </c>
     </row>
   </sheetData>
